--- a/進捗/10月学習計画書_卢国良.xlsx
+++ b/進捗/10月学習計画書_卢国良.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lurex\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715C19F5-9064-42A0-979B-389375B5DC86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60D373F-2DE7-416C-844F-0726A56AB0AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="18720" windowHeight="11949" xr2:uid="{9C83AFA0-F4B7-744B-8790-6972D8931DF1}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="学習計画書" sheetId="1" r:id="rId1"/>
     <sheet name="学習資料" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -273,7 +273,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -329,6 +329,14 @@
       <family val="4"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -382,7 +390,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -433,6 +441,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -752,7 +766,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -784,7 +798,7 @@
       <c r="G2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="17" t="s">
         <v>33</v>
       </c>
     </row>
@@ -857,7 +871,9 @@
       <c r="F5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="18">
+        <v>1</v>
+      </c>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="20.05" customHeight="1">
@@ -1398,7 +1414,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15"/>

--- a/進捗/10月学習計画書_卢国良.xlsx
+++ b/進捗/10月学習計画書_卢国良.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lurex\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60D373F-2DE7-416C-844F-0726A56AB0AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAA6F00-11EA-4A07-9DE1-2DF5078C7E5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="18720" windowHeight="11949" xr2:uid="{9C83AFA0-F4B7-744B-8790-6972D8931DF1}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="学習計画書" sheetId="1" r:id="rId1"/>
     <sheet name="学習資料" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>10月学習計画書</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,18 +128,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>【尚硅谷】NodeJS全套教程　11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>-20</t>
+    <t>API作成(crud)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>復習</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w8ZxncrbwrQ&amp;list=PLmOn9nNkQxJFCeKeTP8MoTrGkmYMPkBD6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【尚硅谷】Bootstrap全套教程 理论+实战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【尚硅谷】Bootstrap全套教程 理论+实战　1-10・練習</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【尚硅谷】Bootstrap全套教程 理论+实战　11-17・練習</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢国良</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 1-15</t>
     </r>
     <r>
       <rPr>
@@ -154,22 +172,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>API作成(crud)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>【尚硅谷】React教程　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>1-10</t>
+    <r>
+      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 16-30</t>
     </r>
     <r>
       <rPr>
@@ -185,7 +189,7 @@
   </si>
   <si>
     <r>
-      <t>【尚硅谷】React教程　21-30</t>
+      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 31-39</t>
     </r>
     <r>
       <rPr>
@@ -201,7 +205,7 @@
   </si>
   <si>
     <r>
-      <t>【尚硅谷】React教程　31-40</t>
+      <t>React系列课程从零基础到项目开发实战 1-21</t>
     </r>
     <r>
       <rPr>
@@ -217,17 +221,7 @@
   </si>
   <si>
     <r>
-      <t>【尚硅谷】React教程　4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>1-45</t>
+      <t>React系列课程从零基础到项目开发实战 22-47</t>
     </r>
     <r>
       <rPr>
@@ -242,27 +236,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>復習</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w8ZxncrbwrQ&amp;list=PLmOn9nNkQxJFCeKeTP8MoTrGkmYMPkBD6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【尚硅谷】Bootstrap全套教程 理论+实战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【尚硅谷】Bootstrap全套教程 理论+实战　1-10・練習</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【尚硅谷】Bootstrap全套教程 理论+实战　11-17・練習</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卢国良</t>
+    <r>
+      <t>React系列课程从零基础到项目开发实战 48-63</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>React系列课程从零基础到项目开发实战 64-83</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・練習</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -390,7 +392,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -439,14 +441,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -777,16 +782,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.149999999999999">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" ht="20.149999999999999">
       <c r="A2" s="11"/>
@@ -798,8 +803,8 @@
       <c r="G2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="17" t="s">
-        <v>33</v>
+      <c r="H2" s="16" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -871,7 +876,7 @@
       <c r="F5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="17">
         <v>1</v>
       </c>
       <c r="H5" s="3"/>
@@ -894,9 +899,11 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0.5</v>
+      </c>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="20.05" customHeight="1">
@@ -917,7 +924,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -940,7 +947,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -992,8 +999,8 @@
       <c r="E11" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>24</v>
+      <c r="F11" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1016,7 +1023,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1039,7 +1046,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1062,7 +1069,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1085,7 +1092,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1116,7 +1123,6 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
@@ -1138,7 +1144,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1161,7 +1167,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -1184,7 +1190,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1453,12 +1459,12 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6">

--- a/進捗/10月学習計画書_卢国良.xlsx
+++ b/進捗/10月学習計画書_卢国良.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lurex\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAA6F00-11EA-4A07-9DE1-2DF5078C7E5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672D63E5-28A5-48A6-90DB-3C5318D9C217}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="18720" windowHeight="11949" xr2:uid="{9C83AFA0-F4B7-744B-8790-6972D8931DF1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9C83AFA0-F4B7-744B-8790-6972D8931DF1}"/>
   </bookViews>
   <sheets>
     <sheet name="学習計画書" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -279,14 +288,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -295,7 +304,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -310,7 +319,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -319,7 +328,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -334,7 +343,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -447,11 +456,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -771,29 +780,29 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.796875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="51.77734375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.149999999999999">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:8" ht="25.5">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-    </row>
-    <row r="2" spans="1:8" ht="20.149999999999999">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="1:8" ht="25.5">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -833,13 +842,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="20.05" customHeight="1">
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4">
         <v>44109</v>
       </c>
       <c r="B4" s="5" t="str">
         <f>TEXT(A4,"aaaa")</f>
-        <v>星期一</v>
+        <v>月曜日</v>
       </c>
       <c r="C4" s="6">
         <v>0.39583333333333331</v>
@@ -856,13 +865,13 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="19.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="4">
         <v>44110</v>
       </c>
       <c r="B5" s="5" t="str">
         <f>TEXT(A5,"aaaa")</f>
-        <v>星期二</v>
+        <v>火曜日</v>
       </c>
       <c r="C5" s="6">
         <v>0.39583333333333331</v>
@@ -881,13 +890,13 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="20.05" customHeight="1">
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4">
         <v>44111</v>
       </c>
       <c r="B6" s="5" t="str">
         <f>TEXT(A6,"aaaa")</f>
-        <v>星期三</v>
+        <v>水曜日</v>
       </c>
       <c r="C6" s="6">
         <v>0.39583333333333331</v>
@@ -902,17 +911,17 @@
         <v>29</v>
       </c>
       <c r="G6" s="17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="20.05" customHeight="1">
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4">
         <v>44112</v>
       </c>
       <c r="B7" s="5" t="str">
         <f t="shared" ref="B7:B30" si="0">TEXT(A7,"aaaa")</f>
-        <v>星期四</v>
+        <v>木曜日</v>
       </c>
       <c r="C7" s="6">
         <v>0.39583333333333331</v>
@@ -929,13 +938,13 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="20.05" customHeight="1">
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4">
         <v>44113</v>
       </c>
       <c r="B8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>星期五</v>
+        <v>金曜日</v>
       </c>
       <c r="C8" s="6">
         <v>0.39583333333333331</v>
@@ -952,13 +961,13 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="20.05" customHeight="1">
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="9">
         <v>44114</v>
       </c>
       <c r="B9" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>星期六</v>
+        <v>土曜日</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -967,13 +976,13 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="20.05" customHeight="1">
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="9">
         <v>44115</v>
       </c>
       <c r="B10" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>星期日</v>
+        <v>日曜日</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -982,13 +991,13 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="20.05" customHeight="1">
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="4">
         <v>44116</v>
       </c>
       <c r="B11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>星期一</v>
+        <v>月曜日</v>
       </c>
       <c r="C11" s="6">
         <v>0.39583333333333331</v>
@@ -999,19 +1008,19 @@
       <c r="E11" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="18" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="20.05" customHeight="1">
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="4">
         <v>44117</v>
       </c>
       <c r="B12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>星期二</v>
+        <v>火曜日</v>
       </c>
       <c r="C12" s="6">
         <v>0.39583333333333331</v>
@@ -1028,13 +1037,13 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="20.05" customHeight="1">
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="4">
         <v>44118</v>
       </c>
       <c r="B13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>星期三</v>
+        <v>水曜日</v>
       </c>
       <c r="C13" s="6">
         <v>0.39583333333333331</v>
@@ -1051,13 +1060,13 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="20.05" customHeight="1">
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="4">
         <v>44119</v>
       </c>
       <c r="B14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>星期四</v>
+        <v>木曜日</v>
       </c>
       <c r="C14" s="6">
         <v>0.39583333333333331</v>
@@ -1074,13 +1083,13 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="20.05" customHeight="1">
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="4">
         <v>44120</v>
       </c>
       <c r="B15" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>星期五</v>
+        <v>金曜日</v>
       </c>
       <c r="C15" s="6">
         <v>0.39583333333333331</v>
@@ -1097,13 +1106,13 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="20.05" customHeight="1">
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="4">
         <v>44121</v>
       </c>
       <c r="B16" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>星期六</v>
+        <v>土曜日</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -1112,13 +1121,13 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="20.05" customHeight="1">
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="4">
         <v>44122</v>
       </c>
       <c r="B17" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>星期日</v>
+        <v>日曜日</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -1126,13 +1135,13 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="20.05" customHeight="1">
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="4">
         <v>44123</v>
       </c>
       <c r="B18" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>星期一</v>
+        <v>月曜日</v>
       </c>
       <c r="C18" s="6">
         <v>0.39583333333333331</v>
@@ -1149,13 +1158,13 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="20.05" customHeight="1">
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="4">
         <v>44124</v>
       </c>
       <c r="B19" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>星期二</v>
+        <v>火曜日</v>
       </c>
       <c r="C19" s="6">
         <v>0.39583333333333331</v>
@@ -1172,13 +1181,13 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="20.05" customHeight="1">
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="4">
         <v>44125</v>
       </c>
       <c r="B20" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>星期三</v>
+        <v>水曜日</v>
       </c>
       <c r="C20" s="6">
         <v>0.39583333333333331</v>
@@ -1195,13 +1204,13 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="20.05" customHeight="1">
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="4">
         <v>44126</v>
       </c>
       <c r="B21" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>星期四</v>
+        <v>木曜日</v>
       </c>
       <c r="C21" s="6">
         <v>0.39583333333333331</v>
@@ -1218,13 +1227,13 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" ht="20.05" customHeight="1">
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="4">
         <v>44127</v>
       </c>
       <c r="B22" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>星期五</v>
+        <v>金曜日</v>
       </c>
       <c r="C22" s="6">
         <v>0.39583333333333331</v>
@@ -1241,13 +1250,13 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" ht="20.05" customHeight="1">
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="4">
         <v>44128</v>
       </c>
       <c r="B23" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>星期六</v>
+        <v>土曜日</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1256,13 +1265,13 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" ht="20.05" customHeight="1">
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="4">
         <v>44129</v>
       </c>
       <c r="B24" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>星期日</v>
+        <v>日曜日</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1271,13 +1280,13 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" ht="20.05" customHeight="1">
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="4">
         <v>44130</v>
       </c>
       <c r="B25" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>星期一</v>
+        <v>月曜日</v>
       </c>
       <c r="C25" s="6">
         <v>0.39583333333333331</v>
@@ -1294,13 +1303,13 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" ht="20.05" customHeight="1">
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="4">
         <v>44131</v>
       </c>
       <c r="B26" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>星期二</v>
+        <v>火曜日</v>
       </c>
       <c r="C26" s="6">
         <v>0.39583333333333331</v>
@@ -1317,13 +1326,13 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" ht="20.05" customHeight="1">
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="4">
         <v>44132</v>
       </c>
       <c r="B27" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>星期三</v>
+        <v>水曜日</v>
       </c>
       <c r="C27" s="6">
         <v>0.39583333333333331</v>
@@ -1340,13 +1349,13 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" ht="20.05" customHeight="1">
+    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="4">
         <v>44133</v>
       </c>
       <c r="B28" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>星期四</v>
+        <v>木曜日</v>
       </c>
       <c r="C28" s="6">
         <v>0.39583333333333331</v>
@@ -1363,13 +1372,13 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" ht="20.05" customHeight="1">
+    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="4">
         <v>44134</v>
       </c>
       <c r="B29" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>星期五</v>
+        <v>金曜日</v>
       </c>
       <c r="C29" s="6">
         <v>0.39583333333333331</v>
@@ -1386,13 +1395,13 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" ht="20.05" customHeight="1">
+    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="4">
         <v>44135</v>
       </c>
       <c r="B30" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>星期六</v>
+        <v>土曜日</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -1423,7 +1432,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="19.5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">

--- a/進捗/10月学習計画書_卢国良.xlsx
+++ b/進捗/10月学習計画書_卢国良.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lurex\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672D63E5-28A5-48A6-90DB-3C5318D9C217}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8433F9-F295-43B1-B0A7-6751B5EA75E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9C83AFA0-F4B7-744B-8790-6972D8931DF1}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="18720" windowHeight="11949" xr2:uid="{9C83AFA0-F4B7-744B-8790-6972D8931DF1}"/>
   </bookViews>
   <sheets>
     <sheet name="学習計画書" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>10月学習計画書</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,7 +157,7 @@
   </si>
   <si>
     <r>
-      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 1-15</t>
+      <t>React系列课程从零基础到项目开发实战 1-21</t>
     </r>
     <r>
       <rPr>
@@ -182,7 +173,7 @@
   </si>
   <si>
     <r>
-      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 16-30</t>
+      <t>React系列课程从零基础到项目开发实战 22-47</t>
     </r>
     <r>
       <rPr>
@@ -198,7 +189,7 @@
   </si>
   <si>
     <r>
-      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 31-39</t>
+      <t>React系列课程从零基础到项目开发实战 48-63</t>
     </r>
     <r>
       <rPr>
@@ -214,7 +205,7 @@
   </si>
   <si>
     <r>
-      <t>React系列课程从零基础到项目开发实战 1-21</t>
+      <t>React系列课程从零基础到项目开发实战 64-83</t>
     </r>
     <r>
       <rPr>
@@ -230,49 +221,139 @@
   </si>
   <si>
     <r>
-      <t>React系列课程从零基础到项目开发实战 22-47</t>
+      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 1-5</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>・練習</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>React系列课程从零基础到项目开发实战 48-63</t>
+      <t>・</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
+        <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>・練習</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>React系列课程从零基础到项目开发实战 64-83</t>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 6-15</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>・練習</t>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【尚硅谷】NodeJS全套教程　11-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 16-23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 24-32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【尚硅谷】NodeJS全套教程　16-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 33-39</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -284,18 +365,18 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -304,7 +385,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -319,7 +400,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -328,7 +409,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -343,10 +424,24 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -780,17 +875,17 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="51.796875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.5">
+    <row r="1" spans="1:8" ht="20.149999999999999">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -802,7 +897,7 @@
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
     </row>
-    <row r="2" spans="1:8" ht="25.5">
+    <row r="2" spans="1:8" ht="20.149999999999999">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -842,13 +937,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:8" ht="20.05" customHeight="1">
       <c r="A4" s="4">
         <v>44109</v>
       </c>
       <c r="B4" s="5" t="str">
         <f>TEXT(A4,"aaaa")</f>
-        <v>月曜日</v>
+        <v>星期一</v>
       </c>
       <c r="C4" s="6">
         <v>0.39583333333333331</v>
@@ -865,13 +960,13 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="19.3">
       <c r="A5" s="4">
         <v>44110</v>
       </c>
       <c r="B5" s="5" t="str">
         <f>TEXT(A5,"aaaa")</f>
-        <v>火曜日</v>
+        <v>星期二</v>
       </c>
       <c r="C5" s="6">
         <v>0.39583333333333331</v>
@@ -890,13 +985,13 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:8" ht="20.05" customHeight="1">
       <c r="A6" s="4">
         <v>44111</v>
       </c>
       <c r="B6" s="5" t="str">
         <f>TEXT(A6,"aaaa")</f>
-        <v>水曜日</v>
+        <v>星期三</v>
       </c>
       <c r="C6" s="6">
         <v>0.39583333333333331</v>
@@ -908,20 +1003,20 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G6" s="17">
         <v>1</v>
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:8" ht="20.05" customHeight="1">
       <c r="A7" s="4">
         <v>44112</v>
       </c>
       <c r="B7" s="5" t="str">
         <f t="shared" ref="B7:B30" si="0">TEXT(A7,"aaaa")</f>
-        <v>木曜日</v>
+        <v>星期四</v>
       </c>
       <c r="C7" s="6">
         <v>0.39583333333333331</v>
@@ -933,18 +1028,22 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
+        <v>34</v>
+      </c>
+      <c r="G7" s="17">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.05" customHeight="1">
       <c r="A8" s="4">
         <v>44113</v>
       </c>
       <c r="B8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>金曜日</v>
+        <v>星期五</v>
       </c>
       <c r="C8" s="6">
         <v>0.39583333333333331</v>
@@ -956,48 +1055,68 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="G8" s="17">
+        <v>1</v>
+      </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:8" ht="20.05" customHeight="1">
       <c r="A9" s="9">
         <v>44114</v>
       </c>
       <c r="B9" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>土曜日</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
+        <v>星期六</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E9" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="H9" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20.05" customHeight="1">
       <c r="A10" s="9">
         <v>44115</v>
       </c>
       <c r="B10" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>日曜日</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
+        <v>星期日</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:8" ht="20.05" customHeight="1">
       <c r="A11" s="4">
         <v>44116</v>
       </c>
       <c r="B11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>月曜日</v>
+        <v>星期一</v>
       </c>
       <c r="C11" s="6">
         <v>0.39583333333333331</v>
@@ -1014,13 +1133,13 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:8" ht="20.05" customHeight="1">
       <c r="A12" s="4">
         <v>44117</v>
       </c>
       <c r="B12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>火曜日</v>
+        <v>星期二</v>
       </c>
       <c r="C12" s="6">
         <v>0.39583333333333331</v>
@@ -1032,18 +1151,18 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:8" ht="20.05" customHeight="1">
       <c r="A13" s="4">
         <v>44118</v>
       </c>
       <c r="B13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>水曜日</v>
+        <v>星期三</v>
       </c>
       <c r="C13" s="6">
         <v>0.39583333333333331</v>
@@ -1055,18 +1174,18 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:8" ht="20.05" customHeight="1">
       <c r="A14" s="4">
         <v>44119</v>
       </c>
       <c r="B14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>木曜日</v>
+        <v>星期四</v>
       </c>
       <c r="C14" s="6">
         <v>0.39583333333333331</v>
@@ -1078,18 +1197,18 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:8" ht="20.05" customHeight="1">
       <c r="A15" s="4">
         <v>44120</v>
       </c>
       <c r="B15" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>金曜日</v>
+        <v>星期五</v>
       </c>
       <c r="C15" s="6">
         <v>0.39583333333333331</v>
@@ -1101,18 +1220,18 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:8" ht="20.05" customHeight="1">
       <c r="A16" s="4">
         <v>44121</v>
       </c>
       <c r="B16" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>土曜日</v>
+        <v>星期六</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -1121,13 +1240,13 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:8" ht="20.05" customHeight="1">
       <c r="A17" s="4">
         <v>44122</v>
       </c>
       <c r="B17" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>日曜日</v>
+        <v>星期日</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -1135,13 +1254,13 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:8" ht="20.05" customHeight="1">
       <c r="A18" s="4">
         <v>44123</v>
       </c>
       <c r="B18" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>月曜日</v>
+        <v>星期一</v>
       </c>
       <c r="C18" s="6">
         <v>0.39583333333333331</v>
@@ -1158,13 +1277,13 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:8" ht="20.05" customHeight="1">
       <c r="A19" s="4">
         <v>44124</v>
       </c>
       <c r="B19" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>火曜日</v>
+        <v>星期二</v>
       </c>
       <c r="C19" s="6">
         <v>0.39583333333333331</v>
@@ -1181,13 +1300,13 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:8" ht="20.05" customHeight="1">
       <c r="A20" s="4">
         <v>44125</v>
       </c>
       <c r="B20" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>水曜日</v>
+        <v>星期三</v>
       </c>
       <c r="C20" s="6">
         <v>0.39583333333333331</v>
@@ -1204,13 +1323,13 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:8" ht="20.05" customHeight="1">
       <c r="A21" s="4">
         <v>44126</v>
       </c>
       <c r="B21" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>木曜日</v>
+        <v>星期四</v>
       </c>
       <c r="C21" s="6">
         <v>0.39583333333333331</v>
@@ -1227,13 +1346,13 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:8" ht="20.05" customHeight="1">
       <c r="A22" s="4">
         <v>44127</v>
       </c>
       <c r="B22" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>金曜日</v>
+        <v>星期五</v>
       </c>
       <c r="C22" s="6">
         <v>0.39583333333333331</v>
@@ -1250,13 +1369,13 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:8" ht="20.05" customHeight="1">
       <c r="A23" s="4">
         <v>44128</v>
       </c>
       <c r="B23" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>土曜日</v>
+        <v>星期六</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1265,13 +1384,13 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:8" ht="20.05" customHeight="1">
       <c r="A24" s="4">
         <v>44129</v>
       </c>
       <c r="B24" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>日曜日</v>
+        <v>星期日</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1280,13 +1399,13 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:8" ht="20.05" customHeight="1">
       <c r="A25" s="4">
         <v>44130</v>
       </c>
       <c r="B25" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>月曜日</v>
+        <v>星期一</v>
       </c>
       <c r="C25" s="6">
         <v>0.39583333333333331</v>
@@ -1303,13 +1422,13 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:8" ht="20.05" customHeight="1">
       <c r="A26" s="4">
         <v>44131</v>
       </c>
       <c r="B26" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>火曜日</v>
+        <v>星期二</v>
       </c>
       <c r="C26" s="6">
         <v>0.39583333333333331</v>
@@ -1326,13 +1445,13 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:8" ht="20.05" customHeight="1">
       <c r="A27" s="4">
         <v>44132</v>
       </c>
       <c r="B27" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>水曜日</v>
+        <v>星期三</v>
       </c>
       <c r="C27" s="6">
         <v>0.39583333333333331</v>
@@ -1349,13 +1468,13 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:8" ht="20.05" customHeight="1">
       <c r="A28" s="4">
         <v>44133</v>
       </c>
       <c r="B28" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>木曜日</v>
+        <v>星期四</v>
       </c>
       <c r="C28" s="6">
         <v>0.39583333333333331</v>
@@ -1372,13 +1491,13 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:8" ht="20.05" customHeight="1">
       <c r="A29" s="4">
         <v>44134</v>
       </c>
       <c r="B29" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>金曜日</v>
+        <v>星期五</v>
       </c>
       <c r="C29" s="6">
         <v>0.39583333333333331</v>
@@ -1395,13 +1514,13 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:8" ht="20.05" customHeight="1">
       <c r="A30" s="4">
         <v>44135</v>
       </c>
       <c r="B30" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>土曜日</v>
+        <v>星期六</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -1432,7 +1551,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">

--- a/進捗/10月学習計画書_卢国良.xlsx
+++ b/進捗/10月学習計画書_卢国良.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lurex\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8433F9-F295-43B1-B0A7-6751B5EA75E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7743FB-B875-4419-A018-5B71E1C2F06C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="18720" windowHeight="11949" xr2:uid="{9C83AFA0-F4B7-744B-8790-6972D8931DF1}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="学習計画書" sheetId="1" r:id="rId1"/>
     <sheet name="学習資料" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>10月学習計画書</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,22 +93,6 @@
   </si>
   <si>
     <t>Node.js 入门教程（文档）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>詳細設計作成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>プログラム作成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>単体試験・結合試験</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>発表会を行う</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -128,14 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>API作成(crud)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>復習</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=w8ZxncrbwrQ&amp;list=PLmOn9nNkQxJFCeKeTP8MoTrGkmYMPkBD6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -144,79 +120,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>【尚硅谷】Bootstrap全套教程 理论+实战　1-10・練習</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【尚硅谷】Bootstrap全套教程 理论+实战　11-17・練習</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>卢国良</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>React系列课程从零基础到项目开发实战 1-21</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>・練習</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>React系列课程从零基础到项目开发实战 22-47</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>・練習</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>React系列课程从零基础到项目开发实战 48-63</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>・練習</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>React系列课程从零基础到项目开发实战 64-83</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>・練習</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -283,6 +187,75 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 24-30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【尚硅谷】NodeJS全套教程　16-19</t>
+  </si>
+  <si>
+    <t>練習（login画面作成）(ビデオ会議予定)</t>
+    <rPh sb="8" eb="12">
+      <t>がめんさくせい</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>かいぎ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>よてい</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>React系列课程从零基础到项目开发实战 1-15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
@@ -299,11 +272,10 @@
       </rPr>
       <t>練習</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 24-32</t>
+  </si>
+  <si>
+    <r>
+      <t>React系列课程从零基础到项目开发实战 16-26</t>
     </r>
     <r>
       <rPr>
@@ -325,15 +297,10 @@
       </rPr>
       <t>練習</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【尚硅谷】NodeJS全套教程　16-20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 33-39</t>
+  </si>
+  <si>
+    <r>
+      <t>React系列课程从零基础到项目开发实战 27-43</t>
     </r>
     <r>
       <rPr>
@@ -342,6 +309,153 @@
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>React系列课程从零基础到项目开发实战 44-55</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>React系列课程从零基础到项目开发实战 56-67</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>React系列课程从零基础到项目开发实战 68-83</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+  </si>
+  <si>
+    <t>復習</t>
+  </si>
+  <si>
+    <t>【尚硅谷】Bootstrap全套教程 理论+实战　1-10・練習</t>
+  </si>
+  <si>
+    <t>【尚硅谷】Bootstrap全套教程 理论+实战　11-17・練習</t>
+  </si>
+  <si>
+    <t>詳細設計作成</t>
+  </si>
+  <si>
+    <t>プログラム作成</t>
+  </si>
+  <si>
+    <t>単体試験・結合試験</t>
+  </si>
+  <si>
+    <t>発表会を行う</t>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 31-35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 36-39</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>・</t>
     </r>
@@ -365,7 +479,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -415,13 +529,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <family val="4"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -442,6 +549,21 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -496,7 +618,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -545,17 +667,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -874,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78B51EF-28B7-2044-BA42-48873DCE2A6B}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -886,16 +1014,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.149999999999999">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" ht="20.149999999999999">
       <c r="A2" s="11"/>
@@ -908,7 +1036,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -978,7 +1106,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G5" s="17">
         <v>1</v>
@@ -1003,7 +1131,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G6" s="17">
         <v>1</v>
@@ -1028,13 +1156,13 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="G7" s="17">
         <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.05" customHeight="1">
@@ -1055,12 +1183,14 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G8" s="17">
         <v>1</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="20.05" customHeight="1">
       <c r="A9" s="9">
@@ -1080,12 +1210,12 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G9" s="21">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="20.05" customHeight="1">
       <c r="A10" s="9">
@@ -1095,18 +1225,10 @@
         <f t="shared" si="0"/>
         <v>星期日</v>
       </c>
-      <c r="C10" s="6">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="E10" s="6">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
@@ -1127,10 +1249,12 @@
       <c r="E11" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F11" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="3"/>
+      <c r="F11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="21">
+        <v>1</v>
+      </c>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="20.05" customHeight="1">
@@ -1150,8 +1274,8 @@
       <c r="E12" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>29</v>
+      <c r="F12" s="20" t="s">
+        <v>42</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1173,8 +1297,8 @@
       <c r="E13" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>30</v>
+      <c r="F13" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1196,8 +1320,8 @@
       <c r="E14" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>31</v>
+      <c r="F14" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1219,8 +1343,8 @@
       <c r="E15" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>32</v>
+      <c r="F15" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1233,10 +1357,18 @@
         <f t="shared" si="0"/>
         <v>星期六</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
+      <c r="C16" s="19">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D16" s="19">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E16" s="19">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
@@ -1248,9 +1380,18 @@
         <f t="shared" si="0"/>
         <v>星期日</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="C17" s="19">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D17" s="19">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E17" s="19">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>31</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
@@ -1262,17 +1403,17 @@
         <f t="shared" si="0"/>
         <v>星期一</v>
       </c>
-      <c r="C18" s="6">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="E18" s="6">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>23</v>
+      <c r="C18" s="19">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D18" s="19">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E18" s="19">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1285,17 +1426,17 @@
         <f t="shared" si="0"/>
         <v>星期二</v>
       </c>
-      <c r="C19" s="6">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D19" s="6">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="E19" s="6">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>26</v>
+      <c r="C19" s="19">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D19" s="19">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E19" s="19">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -1308,17 +1449,17 @@
         <f t="shared" si="0"/>
         <v>星期三</v>
       </c>
-      <c r="C20" s="6">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D20" s="6">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="E20" s="6">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>27</v>
+      <c r="C20" s="19">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D20" s="19">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E20" s="19">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1331,17 +1472,17 @@
         <f t="shared" si="0"/>
         <v>星期四</v>
       </c>
-      <c r="C21" s="6">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D21" s="6">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="E21" s="6">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>17</v>
+      <c r="C21" s="19">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D21" s="19">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E21" s="19">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -1354,17 +1495,17 @@
         <f t="shared" si="0"/>
         <v>星期五</v>
       </c>
-      <c r="C22" s="6">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="E22" s="6">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>18</v>
+      <c r="C22" s="19">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D22" s="19">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E22" s="19">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>36</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1377,10 +1518,18 @@
         <f t="shared" si="0"/>
         <v>星期六</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="7"/>
+      <c r="C23" s="19">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D23" s="19">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E23" s="19">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
@@ -1392,10 +1541,18 @@
         <f t="shared" si="0"/>
         <v>星期日</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
+      <c r="C24" s="19">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D24" s="19">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E24" s="19">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
@@ -1407,17 +1564,17 @@
         <f t="shared" si="0"/>
         <v>星期一</v>
       </c>
-      <c r="C25" s="6">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D25" s="6">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="E25" s="6">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>18</v>
+      <c r="C25" s="19">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D25" s="19">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E25" s="19">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -1430,17 +1587,17 @@
         <f t="shared" si="0"/>
         <v>星期二</v>
       </c>
-      <c r="C26" s="6">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D26" s="6">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="E26" s="6">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>18</v>
+      <c r="C26" s="19">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D26" s="19">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E26" s="19">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -1453,17 +1610,17 @@
         <f t="shared" si="0"/>
         <v>星期三</v>
       </c>
-      <c r="C27" s="6">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D27" s="6">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="E27" s="6">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>18</v>
+      <c r="C27" s="19">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D27" s="19">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E27" s="19">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -1476,17 +1633,17 @@
         <f t="shared" si="0"/>
         <v>星期四</v>
       </c>
-      <c r="C28" s="6">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D28" s="6">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="E28" s="6">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>19</v>
+      <c r="C28" s="19">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D28" s="19">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E28" s="19">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -1499,17 +1656,17 @@
         <f t="shared" si="0"/>
         <v>星期五</v>
       </c>
-      <c r="C29" s="6">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D29" s="6">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="E29" s="6">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>20</v>
+      <c r="C29" s="19">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D29" s="19">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E29" s="19">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -1587,12 +1744,12 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="14" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6">

--- a/進捗/10月学習計画書_卢国良.xlsx
+++ b/進捗/10月学習計画書_卢国良.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lurex\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7743FB-B875-4419-A018-5B71E1C2F06C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DECD51-7A46-49CE-8CEB-EE31A5695DA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="18720" windowHeight="11949" xr2:uid="{9C83AFA0-F4B7-744B-8790-6972D8931DF1}"/>
   </bookViews>
@@ -673,17 +673,17 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1003,7 +1003,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -1014,16 +1014,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.149999999999999">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" ht="20.149999999999999">
       <c r="A2" s="11"/>
@@ -1212,7 +1212,7 @@
       <c r="F9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="20">
         <v>1</v>
       </c>
       <c r="H9" s="3"/>
@@ -1252,7 +1252,7 @@
       <c r="F11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="20">
         <v>1</v>
       </c>
       <c r="H11" s="3"/>
@@ -1274,10 +1274,12 @@
       <c r="E12" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="20">
+        <v>0.9</v>
+      </c>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" ht="20.05" customHeight="1">
@@ -1297,7 +1299,7 @@
       <c r="E13" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="19" t="s">
         <v>27</v>
       </c>
       <c r="G13" s="3"/>
@@ -1320,7 +1322,7 @@
       <c r="E14" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="19" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="3"/>
@@ -1343,7 +1345,7 @@
       <c r="E15" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="19" t="s">
         <v>29</v>
       </c>
       <c r="G15" s="3"/>
@@ -1357,16 +1359,16 @@
         <f t="shared" si="0"/>
         <v>星期六</v>
       </c>
-      <c r="C16" s="19">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D16" s="19">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="E16" s="19">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F16" s="20" t="s">
+      <c r="C16" s="18">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D16" s="18">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E16" s="18">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F16" s="19" t="s">
         <v>30</v>
       </c>
       <c r="G16" s="3"/>
@@ -1380,16 +1382,16 @@
         <f t="shared" si="0"/>
         <v>星期日</v>
       </c>
-      <c r="C17" s="19">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D17" s="19">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="E17" s="19">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F17" s="20" t="s">
+      <c r="C17" s="18">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D17" s="18">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E17" s="18">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F17" s="19" t="s">
         <v>31</v>
       </c>
       <c r="G17" s="3"/>
@@ -1403,16 +1405,16 @@
         <f t="shared" si="0"/>
         <v>星期一</v>
       </c>
-      <c r="C18" s="19">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D18" s="19">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="E18" s="19">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F18" s="20" t="s">
+      <c r="C18" s="18">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D18" s="18">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E18" s="18">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F18" s="19" t="s">
         <v>32</v>
       </c>
       <c r="G18" s="3"/>
@@ -1426,16 +1428,16 @@
         <f t="shared" si="0"/>
         <v>星期二</v>
       </c>
-      <c r="C19" s="19">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D19" s="19">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="E19" s="19">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F19" s="20" t="s">
+      <c r="C19" s="18">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D19" s="18">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E19" s="18">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F19" s="19" t="s">
         <v>33</v>
       </c>
       <c r="G19" s="3"/>
@@ -1449,16 +1451,16 @@
         <f t="shared" si="0"/>
         <v>星期三</v>
       </c>
-      <c r="C20" s="19">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D20" s="19">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="E20" s="19">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F20" s="20" t="s">
+      <c r="C20" s="18">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D20" s="18">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E20" s="18">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F20" s="19" t="s">
         <v>34</v>
       </c>
       <c r="G20" s="3"/>
@@ -1472,16 +1474,16 @@
         <f t="shared" si="0"/>
         <v>星期四</v>
       </c>
-      <c r="C21" s="19">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D21" s="19">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="E21" s="19">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F21" s="20" t="s">
+      <c r="C21" s="18">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D21" s="18">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E21" s="18">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F21" s="19" t="s">
         <v>35</v>
       </c>
       <c r="G21" s="3"/>
@@ -1495,16 +1497,16 @@
         <f t="shared" si="0"/>
         <v>星期五</v>
       </c>
-      <c r="C22" s="19">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D22" s="19">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="E22" s="19">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F22" s="20" t="s">
+      <c r="C22" s="18">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D22" s="18">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E22" s="18">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F22" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G22" s="3"/>
@@ -1518,16 +1520,16 @@
         <f t="shared" si="0"/>
         <v>星期六</v>
       </c>
-      <c r="C23" s="19">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D23" s="19">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="E23" s="19">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F23" s="20" t="s">
+      <c r="C23" s="18">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D23" s="18">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E23" s="18">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F23" s="19" t="s">
         <v>37</v>
       </c>
       <c r="G23" s="3"/>
@@ -1541,16 +1543,16 @@
         <f t="shared" si="0"/>
         <v>星期日</v>
       </c>
-      <c r="C24" s="19">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D24" s="19">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="E24" s="19">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F24" s="20" t="s">
+      <c r="C24" s="18">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D24" s="18">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E24" s="18">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F24" s="19" t="s">
         <v>38</v>
       </c>
       <c r="G24" s="3"/>
@@ -1564,16 +1566,16 @@
         <f t="shared" si="0"/>
         <v>星期一</v>
       </c>
-      <c r="C25" s="19">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D25" s="19">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="E25" s="19">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F25" s="20" t="s">
+      <c r="C25" s="18">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D25" s="18">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E25" s="18">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F25" s="19" t="s">
         <v>38</v>
       </c>
       <c r="G25" s="3"/>
@@ -1587,16 +1589,16 @@
         <f t="shared" si="0"/>
         <v>星期二</v>
       </c>
-      <c r="C26" s="19">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D26" s="19">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="E26" s="19">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F26" s="20" t="s">
+      <c r="C26" s="18">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D26" s="18">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E26" s="18">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F26" s="19" t="s">
         <v>38</v>
       </c>
       <c r="G26" s="3"/>
@@ -1610,16 +1612,16 @@
         <f t="shared" si="0"/>
         <v>星期三</v>
       </c>
-      <c r="C27" s="19">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D27" s="19">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="E27" s="19">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F27" s="20" t="s">
+      <c r="C27" s="18">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D27" s="18">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E27" s="18">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F27" s="19" t="s">
         <v>38</v>
       </c>
       <c r="G27" s="3"/>
@@ -1633,16 +1635,16 @@
         <f t="shared" si="0"/>
         <v>星期四</v>
       </c>
-      <c r="C28" s="19">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D28" s="19">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="E28" s="19">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F28" s="20" t="s">
+      <c r="C28" s="18">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D28" s="18">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E28" s="18">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F28" s="19" t="s">
         <v>39</v>
       </c>
       <c r="G28" s="3"/>
@@ -1656,16 +1658,16 @@
         <f t="shared" si="0"/>
         <v>星期五</v>
       </c>
-      <c r="C29" s="19">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D29" s="19">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="E29" s="19">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F29" s="20" t="s">
+      <c r="C29" s="18">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D29" s="18">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E29" s="18">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F29" s="19" t="s">
         <v>40</v>
       </c>
       <c r="G29" s="3"/>

--- a/進捗/10月学習計画書_卢国良.xlsx
+++ b/進捗/10月学習計画書_卢国良.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lurex\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lurex\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DECD51-7A46-49CE-8CEB-EE31A5695DA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7E7B5B-B7B7-4F5C-B8F0-48B03B89902C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="18720" windowHeight="11949" xr2:uid="{9C83AFA0-F4B7-744B-8790-6972D8931DF1}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="学習計画書" sheetId="1" r:id="rId1"/>
     <sheet name="学習資料" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1003,7 +1003,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -1278,7 +1278,7 @@
         <v>42</v>
       </c>
       <c r="G12" s="20">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H12" s="3"/>
     </row>
@@ -1302,7 +1302,9 @@
       <c r="F13" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="20">
+        <v>1</v>
+      </c>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" ht="20.05" customHeight="1">
@@ -1325,7 +1327,9 @@
       <c r="F14" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="20">
+        <v>1</v>
+      </c>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="20.05" customHeight="1">

--- a/進捗/10月学習計画書_卢国良.xlsx
+++ b/進捗/10月学習計画書_卢国良.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lurex\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7E7B5B-B7B7-4F5C-B8F0-48B03B89902C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3422B896-1B15-49F6-A267-4DB6897A4EB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="18720" windowHeight="11949" xr2:uid="{9C83AFA0-F4B7-744B-8790-6972D8931DF1}"/>
+    <workbookView xWindow="4200" yWindow="0" windowWidth="13886" windowHeight="8520" xr2:uid="{9C83AFA0-F4B7-744B-8790-6972D8931DF1}"/>
   </bookViews>
   <sheets>
     <sheet name="学習計画書" sheetId="1" r:id="rId1"/>
@@ -1003,7 +1003,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -1352,7 +1352,9 @@
       <c r="F15" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="3"/>
+      <c r="G15" s="20">
+        <v>1</v>
+      </c>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" ht="20.05" customHeight="1">

--- a/進捗/10月学習計画書_卢国良.xlsx
+++ b/進捗/10月学習計画書_卢国良.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lurex\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3422B896-1B15-49F6-A267-4DB6897A4EB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCF76CD-FAA9-4FB9-8244-99AB0ECF9663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="0" windowWidth="13886" windowHeight="8520" xr2:uid="{9C83AFA0-F4B7-744B-8790-6972D8931DF1}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="18720" windowHeight="11949" xr2:uid="{9C83AFA0-F4B7-744B-8790-6972D8931DF1}"/>
   </bookViews>
   <sheets>
     <sheet name="学習計画書" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>10月学習計画書</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -397,9 +397,6 @@
       </rPr>
       <t>練習</t>
     </r>
-  </si>
-  <si>
-    <t>復習</t>
   </si>
   <si>
     <t>【尚硅谷】Bootstrap全套教程 理论+实战　1-10・練習</t>
@@ -1002,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78B51EF-28B7-2044-BA42-48873DCE2A6B}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -1250,7 +1247,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" s="20">
         <v>1</v>
@@ -1275,7 +1272,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="20">
         <v>1</v>
@@ -1374,9 +1371,6 @@
       <c r="E16" s="18">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F16" s="19" t="s">
-        <v>30</v>
-      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
@@ -1398,9 +1392,11 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="G17" s="20">
+        <v>1</v>
+      </c>
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" ht="20.05" customHeight="1">
@@ -1421,7 +1417,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1444,7 +1440,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -1467,7 +1463,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1490,7 +1486,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -1513,7 +1509,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1536,7 +1532,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -1559,7 +1555,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -1582,7 +1578,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -1605,7 +1601,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -1628,7 +1624,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -1651,7 +1647,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -1674,7 +1670,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>

--- a/進捗/10月学習計画書_卢国良.xlsx
+++ b/進捗/10月学習計画書_卢国良.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lurex\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCF76CD-FAA9-4FB9-8244-99AB0ECF9663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37846FAE-2673-4966-8844-3724ED37BCCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="18720" windowHeight="11949" xr2:uid="{9C83AFA0-F4B7-744B-8790-6972D8931DF1}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>10月学習計画書</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -399,12 +399,6 @@
     </r>
   </si>
   <si>
-    <t>【尚硅谷】Bootstrap全套教程 理论+实战　1-10・練習</t>
-  </si>
-  <si>
-    <t>【尚硅谷】Bootstrap全套教程 理论+实战　11-17・練習</t>
-  </si>
-  <si>
     <t>詳細設計作成</t>
   </si>
   <si>
@@ -466,6 +460,10 @@
       </rPr>
       <t>練習</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>復習</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1000,7 +998,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -1247,7 +1245,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G11" s="20">
         <v>1</v>
@@ -1272,7 +1270,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G12" s="20">
         <v>1</v>
@@ -1417,9 +1415,11 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="G18" s="20">
+        <v>1</v>
+      </c>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" ht="20.05" customHeight="1">
@@ -1440,9 +1440,11 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="G19" s="20">
+        <v>1</v>
+      </c>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" ht="20.05" customHeight="1">
@@ -1463,7 +1465,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1486,7 +1488,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -1509,7 +1511,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1532,7 +1534,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -1555,7 +1557,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -1578,7 +1580,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -1601,7 +1603,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -1624,7 +1626,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -1647,7 +1649,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -1670,7 +1672,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
